--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1499320.526153</v>
+        <v>-1502129.303351284</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10871172.54314994</v>
+        <v>10871172.54314995</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.365185199962335</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.420490887759</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>123.689478378629</v>
+        <v>123.6894783786287</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>36.00089419649714</v>
+        <v>157.7226091094248</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>213.241559570175</v>
       </c>
       <c r="U2" t="n">
         <v>251.1655630849886</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>100.602926519473</v>
       </c>
       <c r="I3" t="n">
-        <v>47.92739394195372</v>
+        <v>47.9273939419536</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>25.37585377018007</v>
+        <v>25.37585377017984</v>
       </c>
       <c r="S3" t="n">
-        <v>149.310912915103</v>
+        <v>149.3109129151029</v>
       </c>
       <c r="T3" t="n">
-        <v>195.3099222543382</v>
+        <v>195.3099222543381</v>
       </c>
       <c r="U3" t="n">
         <v>225.8621414970714</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.981203174509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.2493442537776</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.607057521141741</v>
+        <v>1.607057521141485</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>131.8901822333942</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>4.991064513427721</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2639506555482</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>161.3774842644901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>93.69924058152837</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.05161472953679</v>
+        <v>13.05161472953678</v>
       </c>
       <c r="H5" t="n">
-        <v>316.420490887759</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>123.689478378629</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>8.462026260312967</v>
+        <v>8.462026260312513</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>157.7226091094248</v>
       </c>
       <c r="T5" t="n">
         <v>213.241559570175</v>
       </c>
       <c r="U5" t="n">
-        <v>40.2119873276684</v>
+        <v>251.1655630849886</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>100.602926519473</v>
       </c>
       <c r="I6" t="n">
-        <v>47.92739394195372</v>
+        <v>47.9273939419536</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>25.37585377018007</v>
+        <v>25.37585377017984</v>
       </c>
       <c r="S6" t="n">
-        <v>149.310912915103</v>
+        <v>149.3109129151029</v>
       </c>
       <c r="T6" t="n">
-        <v>195.3099222543382</v>
+        <v>195.3099222543381</v>
       </c>
       <c r="U6" t="n">
         <v>225.8621414970714</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.607057521141741</v>
+        <v>1.607057521141485</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>206.4189530857759</v>
       </c>
       <c r="T7" t="n">
         <v>223.6310911877691</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>18.28069074141261</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>73.35818334868792</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>369.9627411541363</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>126.220647888976</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>7.242727921694518</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>108.886764143452</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9099333628698</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>104.4564809702492</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>133.3133845470782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.74007641194018</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>185.7223172888148</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,10 +3247,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,10 +3484,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>873.3573889034215</v>
+        <v>182.2419917311831</v>
       </c>
       <c r="C2" t="n">
-        <v>504.3948719630098</v>
+        <v>182.2419917311831</v>
       </c>
       <c r="D2" t="n">
-        <v>504.3948719630098</v>
+        <v>182.2419917311831</v>
       </c>
       <c r="E2" t="n">
-        <v>504.3948719630098</v>
+        <v>177.8327137514231</v>
       </c>
       <c r="F2" t="n">
-        <v>497.4493712138063</v>
+        <v>177.8327137514231</v>
       </c>
       <c r="G2" t="n">
-        <v>497.4493712138063</v>
+        <v>177.8327137514231</v>
       </c>
       <c r="H2" t="n">
-        <v>177.8327137514235</v>
+        <v>177.8327137514231</v>
       </c>
       <c r="I2" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J2" t="n">
-        <v>230.2146704401655</v>
+        <v>62.80902141981306</v>
       </c>
       <c r="K2" t="n">
-        <v>616.7174237892471</v>
+        <v>128.4078163234424</v>
       </c>
       <c r="L2" t="n">
-        <v>1148.48489377232</v>
+        <v>660.1752863065165</v>
       </c>
       <c r="M2" t="n">
-        <v>1404.351350038371</v>
+        <v>1268.475602757836</v>
       </c>
       <c r="N2" t="n">
-        <v>2007.862604022459</v>
+        <v>1871.986856741925</v>
       </c>
       <c r="O2" t="n">
-        <v>2532.553529764657</v>
+        <v>2396.677782484123</v>
       </c>
       <c r="P2" t="n">
-        <v>2624.109991734726</v>
+        <v>2624.109991734725</v>
       </c>
       <c r="Q2" t="n">
-        <v>2644.692335115163</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R2" t="n">
-        <v>2644.692335115163</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="S2" t="n">
-        <v>2608.327795522741</v>
+        <v>2485.376568337966</v>
       </c>
       <c r="T2" t="n">
-        <v>2608.327795522741</v>
+        <v>2269.981053620617</v>
       </c>
       <c r="U2" t="n">
-        <v>2354.625206548005</v>
+        <v>2016.278464645881</v>
       </c>
       <c r="V2" t="n">
-        <v>2023.562319204435</v>
+        <v>1685.215577302311</v>
       </c>
       <c r="W2" t="n">
-        <v>2023.562319204435</v>
+        <v>1332.446922032196</v>
       </c>
       <c r="X2" t="n">
-        <v>1650.096560943355</v>
+        <v>958.9811637711166</v>
       </c>
       <c r="Y2" t="n">
-        <v>1259.957228967543</v>
+        <v>568.8418317953049</v>
       </c>
     </row>
     <row r="3">
@@ -4398,37 +4398,37 @@
         <v>340.4386757420053</v>
       </c>
       <c r="G3" t="n">
-        <v>202.924473431017</v>
+        <v>202.9244734310173</v>
       </c>
       <c r="H3" t="n">
         <v>101.3053557345797</v>
       </c>
       <c r="I3" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J3" t="n">
-        <v>52.89384670230326</v>
+        <v>164.8115348683172</v>
       </c>
       <c r="K3" t="n">
-        <v>108.9792602374767</v>
+        <v>237.6464844927578</v>
       </c>
       <c r="L3" t="n">
-        <v>597.8475031110175</v>
+        <v>726.5147273662994</v>
       </c>
       <c r="M3" t="n">
-        <v>1220.312905759393</v>
+        <v>1348.980130014676</v>
       </c>
       <c r="N3" t="n">
-        <v>1870.210523227614</v>
+        <v>2003.541482955678</v>
       </c>
       <c r="O3" t="n">
-        <v>2012.74546225823</v>
+        <v>2536.000118070257</v>
       </c>
       <c r="P3" t="n">
-        <v>2423.087391642756</v>
+        <v>2631.063906501246</v>
       </c>
       <c r="Q3" t="n">
-        <v>2644.692335115163</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R3" t="n">
         <v>2619.060159589728</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>545.2952290527219</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="C4" t="n">
-        <v>376.359046124815</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="D4" t="n">
-        <v>376.359046124815</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="E4" t="n">
-        <v>376.359046124815</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="F4" t="n">
-        <v>376.359046124815</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="G4" t="n">
-        <v>207.6911641303614</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="H4" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="I4" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J4" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="K4" t="n">
-        <v>146.991506472575</v>
+        <v>146.9915064725753</v>
       </c>
       <c r="L4" t="n">
-        <v>322.9305488911102</v>
+        <v>322.930548891111</v>
       </c>
       <c r="M4" t="n">
-        <v>518.8227237419362</v>
+        <v>518.8227237419375</v>
       </c>
       <c r="N4" t="n">
-        <v>715.491636937202</v>
+        <v>715.4916369372038</v>
       </c>
       <c r="O4" t="n">
-        <v>881.1309145445523</v>
+        <v>881.1309145445546</v>
       </c>
       <c r="P4" t="n">
-        <v>999.3432493781994</v>
+        <v>999.343249378202</v>
       </c>
       <c r="Q4" t="n">
-        <v>997.7199589528037</v>
+        <v>997.7199589528066</v>
       </c>
       <c r="R4" t="n">
-        <v>997.7199589528037</v>
+        <v>864.4975526564488</v>
       </c>
       <c r="S4" t="n">
-        <v>997.7199589528037</v>
+        <v>864.4975526564488</v>
       </c>
       <c r="T4" t="n">
-        <v>997.7199589528037</v>
+        <v>859.4560733499561</v>
       </c>
       <c r="U4" t="n">
-        <v>997.7199589528037</v>
+        <v>570.3005676372811</v>
       </c>
       <c r="V4" t="n">
-        <v>997.7199589528037</v>
+        <v>570.3005676372811</v>
       </c>
       <c r="W4" t="n">
-        <v>708.3027889158432</v>
+        <v>280.8833976003206</v>
       </c>
       <c r="X4" t="n">
-        <v>708.3027889158432</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="Y4" t="n">
-        <v>545.2952290527219</v>
+        <v>52.89384670230324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1272.32909072342</v>
+        <v>894.8967097775226</v>
       </c>
       <c r="C5" t="n">
-        <v>903.3665737830083</v>
+        <v>525.9341928371109</v>
       </c>
       <c r="D5" t="n">
-        <v>903.3665737830083</v>
+        <v>167.6684942303604</v>
       </c>
       <c r="E5" t="n">
-        <v>517.5783211847641</v>
+        <v>73.02279667326104</v>
       </c>
       <c r="F5" t="n">
-        <v>510.6328204355607</v>
+        <v>66.07729592405757</v>
       </c>
       <c r="G5" t="n">
-        <v>497.4493712138063</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="H5" t="n">
-        <v>177.8327137514235</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="I5" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J5" t="n">
-        <v>230.2146704401655</v>
+        <v>62.80902141981306</v>
       </c>
       <c r="K5" t="n">
-        <v>616.7174237892471</v>
+        <v>449.3117747688955</v>
       </c>
       <c r="L5" t="n">
-        <v>1077.244106361962</v>
+        <v>962.8513722838593</v>
       </c>
       <c r="M5" t="n">
-        <v>1685.54442281328</v>
+        <v>1571.151688735178</v>
       </c>
       <c r="N5" t="n">
-        <v>1856.082221629504</v>
+        <v>2174.662942719268</v>
       </c>
       <c r="O5" t="n">
-        <v>2003.780967921583</v>
+        <v>2322.361689011349</v>
       </c>
       <c r="P5" t="n">
-        <v>2413.918150981421</v>
+        <v>2413.918150981419</v>
       </c>
       <c r="Q5" t="n">
-        <v>2644.692335115163</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R5" t="n">
         <v>2636.144833842119</v>
       </c>
       <c r="S5" t="n">
-        <v>2636.144833842119</v>
+        <v>2476.829067064923</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.749319124771</v>
+        <v>2261.433552347574</v>
       </c>
       <c r="U5" t="n">
-        <v>2380.131150106924</v>
+        <v>2007.730963372838</v>
       </c>
       <c r="V5" t="n">
-        <v>2049.068262763353</v>
+        <v>2007.730963372838</v>
       </c>
       <c r="W5" t="n">
-        <v>2049.068262763353</v>
+        <v>1654.962308102724</v>
       </c>
       <c r="X5" t="n">
-        <v>2049.068262763353</v>
+        <v>1281.496549841644</v>
       </c>
       <c r="Y5" t="n">
-        <v>1658.928930787542</v>
+        <v>1281.496549841644</v>
       </c>
     </row>
     <row r="6">
@@ -4620,55 +4620,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>969.5981276629544</v>
+        <v>969.5981276629541</v>
       </c>
       <c r="C6" t="n">
-        <v>795.1450983818274</v>
+        <v>795.1450983818271</v>
       </c>
       <c r="D6" t="n">
-        <v>646.2106887205762</v>
+        <v>646.2106887205757</v>
       </c>
       <c r="E6" t="n">
-        <v>486.9732337151206</v>
+        <v>486.9732337151202</v>
       </c>
       <c r="F6" t="n">
-        <v>340.4386757420056</v>
+        <v>340.4386757420053</v>
       </c>
       <c r="G6" t="n">
-        <v>202.9244734310172</v>
+        <v>202.9244734310168</v>
       </c>
       <c r="H6" t="n">
-        <v>101.3053557345797</v>
+        <v>101.3053557345796</v>
       </c>
       <c r="I6" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J6" t="n">
-        <v>164.8115348683169</v>
+        <v>164.8115348683172</v>
       </c>
       <c r="K6" t="n">
-        <v>482.7175330459431</v>
+        <v>482.717533045944</v>
       </c>
       <c r="L6" t="n">
-        <v>971.5857759194839</v>
+        <v>604.453834069061</v>
       </c>
       <c r="M6" t="n">
-        <v>1594.051178567859</v>
+        <v>1226.919236717437</v>
       </c>
       <c r="N6" t="n">
-        <v>2003.541482955681</v>
+        <v>1795.564968097187</v>
       </c>
       <c r="O6" t="n">
-        <v>2536.000118070259</v>
+        <v>2328.023603211766</v>
       </c>
       <c r="P6" t="n">
-        <v>2631.063906501247</v>
+        <v>2423.087391642755</v>
       </c>
       <c r="Q6" t="n">
-        <v>2644.692335115163</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R6" t="n">
-        <v>2619.060159589729</v>
+        <v>2619.060159589728</v>
       </c>
       <c r="S6" t="n">
         <v>2468.241055635079</v>
@@ -4680,7 +4680,7 @@
         <v>2042.814728613453</v>
       </c>
       <c r="V6" t="n">
-        <v>1807.662620381711</v>
+        <v>1807.66262038171</v>
       </c>
       <c r="W6" t="n">
         <v>1553.425263653509</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9235796970321</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9235796970321</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8069402846964</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="E7" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="F7" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="G7" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="H7" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="I7" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J7" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="K7" t="n">
-        <v>146.991506472575</v>
+        <v>146.9915064725753</v>
       </c>
       <c r="L7" t="n">
-        <v>322.9305488911102</v>
+        <v>322.930548891111</v>
       </c>
       <c r="M7" t="n">
-        <v>518.8227237419362</v>
+        <v>518.8227237419375</v>
       </c>
       <c r="N7" t="n">
-        <v>715.491636937202</v>
+        <v>715.4916369372038</v>
       </c>
       <c r="O7" t="n">
-        <v>881.1309145445523</v>
+        <v>881.1309145445546</v>
       </c>
       <c r="P7" t="n">
-        <v>999.3432493781994</v>
+        <v>999.343249378202</v>
       </c>
       <c r="Q7" t="n">
-        <v>997.7199589528037</v>
+        <v>997.7199589528066</v>
       </c>
       <c r="R7" t="n">
-        <v>997.7199589528037</v>
+        <v>997.7199589528066</v>
       </c>
       <c r="S7" t="n">
-        <v>997.7199589528037</v>
+        <v>789.2159659368713</v>
       </c>
       <c r="T7" t="n">
-        <v>771.829967854047</v>
+        <v>563.3259748381146</v>
       </c>
       <c r="U7" t="n">
-        <v>771.829967854047</v>
+        <v>563.3259748381146</v>
       </c>
       <c r="V7" t="n">
-        <v>753.364623670802</v>
+        <v>308.6414866322277</v>
       </c>
       <c r="W7" t="n">
-        <v>753.364623670802</v>
+        <v>308.6414866322277</v>
       </c>
       <c r="X7" t="n">
-        <v>753.364623670802</v>
+        <v>308.6414866322277</v>
       </c>
       <c r="Y7" t="n">
-        <v>532.5720445272718</v>
+        <v>234.542311532543</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>835.1928278218297</v>
+        <v>439.6409629650033</v>
       </c>
       <c r="C8" t="n">
-        <v>835.1928278218297</v>
+        <v>439.6409629650033</v>
       </c>
       <c r="D8" t="n">
-        <v>476.9271292150793</v>
+        <v>439.6409629650033</v>
       </c>
       <c r="E8" t="n">
-        <v>476.9271292150793</v>
+        <v>439.6409629650033</v>
       </c>
       <c r="F8" t="n">
-        <v>469.9816284658758</v>
+        <v>65.94122442547173</v>
       </c>
       <c r="G8" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="H8" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="I8" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J8" t="n">
         <v>241.5337457160396</v>
       </c>
       <c r="K8" t="n">
-        <v>516.9661272377241</v>
+        <v>645.0008587360851</v>
       </c>
       <c r="L8" t="n">
-        <v>1069.779385483923</v>
+        <v>1197.814116982284</v>
       </c>
       <c r="M8" t="n">
-        <v>1701.497196467235</v>
+        <v>1829.531927965596</v>
       </c>
       <c r="N8" t="n">
-        <v>2328.804864527081</v>
+        <v>2023.866140857578</v>
       </c>
       <c r="O8" t="n">
-        <v>2498.973889844041</v>
+        <v>2194.035166174538</v>
       </c>
       <c r="P8" t="n">
-        <v>2609.708215093568</v>
+        <v>2609.708215093567</v>
       </c>
       <c r="Q8" t="n">
-        <v>2644.692335115163</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="R8" t="n">
-        <v>2644.692335115163</v>
+        <v>2644.692335115162</v>
       </c>
       <c r="S8" t="n">
-        <v>2488.477297611991</v>
+        <v>2488.47729761199</v>
       </c>
       <c r="T8" t="n">
         <v>2273.677435879702</v>
       </c>
       <c r="U8" t="n">
-        <v>2019.985732624853</v>
+        <v>2273.677435879702</v>
       </c>
       <c r="V8" t="n">
-        <v>1688.922845281282</v>
+        <v>1942.614548536131</v>
       </c>
       <c r="W8" t="n">
-        <v>1336.154190011168</v>
+        <v>1589.845893266017</v>
       </c>
       <c r="X8" t="n">
-        <v>962.6884317500883</v>
+        <v>1216.380135004937</v>
       </c>
       <c r="Y8" t="n">
-        <v>835.1928278218297</v>
+        <v>826.2408030291251</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>966.3155311289091</v>
+        <v>966.3155311289089</v>
       </c>
       <c r="C9" t="n">
-        <v>791.8625018477821</v>
+        <v>791.8625018477819</v>
       </c>
       <c r="D9" t="n">
-        <v>642.9280921865309</v>
+        <v>642.9280921865306</v>
       </c>
       <c r="E9" t="n">
-        <v>483.6906371810753</v>
+        <v>483.6906371810752</v>
       </c>
       <c r="F9" t="n">
-        <v>337.1560792079603</v>
+        <v>337.1560792079602</v>
       </c>
       <c r="G9" t="n">
-        <v>199.7146815671822</v>
+        <v>199.7146815671821</v>
       </c>
       <c r="H9" t="n">
-        <v>98.79870371198678</v>
+        <v>98.79870371198675</v>
       </c>
       <c r="I9" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J9" t="n">
         <v>171.5530985591989</v>
       </c>
       <c r="K9" t="n">
-        <v>500.9815028650088</v>
+        <v>239.1609182225559</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.343042731127</v>
+        <v>743.5224580886745</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.840379085732</v>
+        <v>923.0197944432794</v>
       </c>
       <c r="N9" t="n">
-        <v>1431.121670849306</v>
+        <v>1431.121670849305</v>
       </c>
       <c r="O9" t="n">
-        <v>1980.557679602029</v>
+        <v>1980.557679602028</v>
       </c>
       <c r="P9" t="n">
         <v>2404.525448082865</v>
@@ -4905,10 +4905,10 @@
         <v>2635.238904143333</v>
       </c>
       <c r="R9" t="n">
-        <v>2614.12700454552</v>
+        <v>2614.127004545519</v>
       </c>
       <c r="S9" t="n">
-        <v>2464.660215408155</v>
+        <v>2464.660215408154</v>
       </c>
       <c r="T9" t="n">
         <v>2267.670919568242</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.3752794662825</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="C10" t="n">
-        <v>239.3752794662825</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="D10" t="n">
-        <v>239.3752794662825</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="E10" t="n">
-        <v>239.3752794662825</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="F10" t="n">
-        <v>239.3752794662825</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="G10" t="n">
-        <v>70.76843446166586</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="H10" t="n">
-        <v>70.76843446166586</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="I10" t="n">
-        <v>70.76843446166586</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="J10" t="n">
-        <v>52.89384670230326</v>
+        <v>52.89384670230324</v>
       </c>
       <c r="K10" t="n">
         <v>153.9417762979131</v>
@@ -4984,28 +4984,28 @@
         <v>1052.828528161648</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.828528161648</v>
+        <v>1045.512641372058</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.828528161648</v>
+        <v>1045.512641372058</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.828528161648</v>
+        <v>1045.512641372058</v>
       </c>
       <c r="U10" t="n">
-        <v>942.8418977137168</v>
+        <v>756.3604649497375</v>
       </c>
       <c r="V10" t="n">
-        <v>688.1574095078299</v>
+        <v>501.6759767438507</v>
       </c>
       <c r="W10" t="n">
-        <v>688.1574095078299</v>
+        <v>501.6759767438507</v>
       </c>
       <c r="X10" t="n">
-        <v>460.1678586098126</v>
+        <v>273.6864258458334</v>
       </c>
       <c r="Y10" t="n">
-        <v>239.3752794662825</v>
+        <v>52.89384670230324</v>
       </c>
     </row>
     <row r="11">
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5306,7 +5306,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5367,10 +5367,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
         <v>2283.159972732779</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
         <v>343.0994656851783</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1981.370942808024</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.686454602137</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1437.269284565176</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.279733667159</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.4871545236284</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1204.178757203172</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,16 +5832,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,7 +6218,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6227,7 +6227,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6412,22 +6412,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2009.464245195835</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2009.464245195835</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6601,13 +6601,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>197.0043242297712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954145</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,19 +7187,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7327,13 +7327,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656809</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580107</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345469</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954147</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>93.51973532589633</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
         <v>437.3469244119842</v>
@@ -7994,7 +7994,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>137.2482295762939</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>13.0428654757486</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>16.91872332249152</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8067,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>474.5447929575932</v>
+        <v>479.2556368694925</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>345.7008232268561</v>
+        <v>399.2492221584199</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>231.7091231794116</v>
+        <v>392.4721807470154</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>194.8174009566588</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,13 +8462,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>308.0189127974773</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263525</v>
+        <v>312.5708431852133</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>377.5651848722994</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>244.6994616377892</v>
       </c>
       <c r="G2" t="n">
         <v>413.0516147295368</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.462026260312513</v>
       </c>
       <c r="S2" t="n">
-        <v>121.7217149129278</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.241559570175</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22708,25 +22708,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>85.38134586399816</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.981203174509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.0837511408433</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9680039114282</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,16 +22753,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.4189530857759</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.6310911877691</v>
+        <v>218.6400266743414</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2639506555482</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>57.20716908760474</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>6.274541026374379</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>75.37549921168812</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>33.93343655154959</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.12601365260461</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>31.68313303847347</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>63.36835372228751</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -26320,7 +26320,7 @@
         <v>143682.3097262496</v>
       </c>
       <c r="E2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.654945751</v>
       </c>
       <c r="F2" t="n">
         <v>141250.6549457511</v>
@@ -26329,31 +26329,31 @@
         <v>141250.6549457511</v>
       </c>
       <c r="H2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="I2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
         <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="L2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="O2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="P2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>761165.5885788754</v>
+        <v>761165.5885788769</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>28697.84000521826</v>
+        <v>28697.8400052168</v>
       </c>
       <c r="E3" t="n">
-        <v>774968.2996968123</v>
+        <v>774968.2996968124</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
         <v>127476.619057575</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107154.1262506743</v>
+        <v>107154.126250674</v>
       </c>
       <c r="C4" t="n">
-        <v>189363.5381878118</v>
+        <v>189363.5381878116</v>
       </c>
       <c r="D4" t="n">
         <v>183702.0609696329</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695081</v>
+        <v>6287.480531695063</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695059</v>
+        <v>6287.480531695055</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695072</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="L4" t="n">
-        <v>14278.33979478854</v>
+        <v>14278.33979478852</v>
       </c>
       <c r="M4" t="n">
-        <v>14278.33979478853</v>
+        <v>14278.33979478858</v>
       </c>
       <c r="N4" t="n">
         <v>14278.33979478854</v>
       </c>
       <c r="O4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478854</v>
       </c>
       <c r="P4" t="n">
-        <v>14278.33979478851</v>
+        <v>14278.33979478853</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86034.19957935343</v>
+        <v>86034.19957935346</v>
       </c>
       <c r="C5" t="n">
-        <v>86034.19957935343</v>
+        <v>86034.19957935346</v>
       </c>
       <c r="D5" t="n">
-        <v>86764.70248112029</v>
+        <v>86764.70248112027</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-835877.4157828779</v>
+        <v>-836237.4987985966</v>
       </c>
       <c r="C6" t="n">
-        <v>-131715.4280409157</v>
+        <v>-131715.4280409155</v>
       </c>
       <c r="D6" t="n">
-        <v>-155482.2937297219</v>
+        <v>-155482.2937297203</v>
       </c>
       <c r="E6" t="n">
-        <v>-741127.6551066634</v>
+        <v>-741162.3930320991</v>
       </c>
       <c r="F6" t="n">
-        <v>33840.64459014895</v>
+        <v>33805.90666471326</v>
       </c>
       <c r="G6" t="n">
-        <v>33840.64459014895</v>
+        <v>33805.90666471326</v>
       </c>
       <c r="H6" t="n">
-        <v>33840.64459014895</v>
+        <v>33805.90666471326</v>
       </c>
       <c r="I6" t="n">
-        <v>33840.64459014901</v>
+        <v>33805.90666471326</v>
       </c>
       <c r="J6" t="n">
-        <v>-139151.3257420689</v>
+        <v>-139186.0636675046</v>
       </c>
       <c r="K6" t="n">
-        <v>33840.64459014892</v>
+        <v>33805.90666471331</v>
       </c>
       <c r="L6" t="n">
-        <v>6812.136083913938</v>
+        <v>6812.136083913982</v>
       </c>
       <c r="M6" t="n">
         <v>-101236.7649800293</v>
       </c>
       <c r="N6" t="n">
-        <v>26239.85407754566</v>
+        <v>26239.85407754577</v>
       </c>
       <c r="O6" t="n">
-        <v>26239.85407754569</v>
+        <v>26239.85407754572</v>
       </c>
       <c r="P6" t="n">
-        <v>26239.85407754575</v>
+        <v>26239.85407754571</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203975</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.9667929175672</v>
+        <v>559.9667929175689</v>
       </c>
       <c r="C3" t="n">
-        <v>559.9667929175672</v>
+        <v>559.9667929175689</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.1730837787907</v>
+        <v>661.1730837787906</v>
       </c>
       <c r="C4" t="n">
-        <v>661.1730837787907</v>
+        <v>661.1730837787906</v>
       </c>
       <c r="D4" t="n">
-        <v>661.1730837787907</v>
+        <v>661.1730837787906</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.9667929175672</v>
+        <v>559.9667929175689</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>33.50930742049786</v>
+        <v>33.50930742049616</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>661.1730837787907</v>
+        <v>661.1730837787906</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>511.5352043208577</v>
+        <v>511.5352043208578</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>661.1730837787903</v>
+        <v>661.1730837787906</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.5352043208577</v>
+        <v>511.5352043208576</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>661.1730837787907</v>
+        <v>661.1730837787906</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>511.5352043208577</v>
+        <v>511.5352043208578</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>162.1765841039222</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>316.4204908877589</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.462026260312967</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27537,28 +27537,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>63.23412715421419</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.2493442537776</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.0837511408432</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>21.96800391142797</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.8901822333943</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.4189530857759</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,10 +27619,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>288.2311294907334</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>316.4204908877589</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>123.6894783786287</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>157.722609109425</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>210.9535757573202</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>153.2493442537776</v>
       </c>
       <c r="I7" t="n">
-        <v>125.0837511408433</v>
+        <v>125.0837511408432</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9680039114282</v>
+        <v>21.96800391142797</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>131.8901822333943</v>
+        <v>131.8901822333942</v>
       </c>
       <c r="S7" t="n">
-        <v>206.4189530857759</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2639506555482</v>
       </c>
       <c r="V7" t="n">
-        <v>233.8569525824154</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>145.2264700034069</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>36.91330458757517</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27907,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>260.0172907670776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>121.9304537460968</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,7 +28065,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>177.373890514645</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.251122785598259</v>
+        <v>2.251122785598265</v>
       </c>
       <c r="H2" t="n">
-        <v>23.05431122800817</v>
+        <v>23.05431122800824</v>
       </c>
       <c r="I2" t="n">
-        <v>86.78641119177693</v>
+        <v>86.7864111917772</v>
       </c>
       <c r="J2" t="n">
-        <v>191.0612325241704</v>
+        <v>191.0612325241709</v>
       </c>
       <c r="K2" t="n">
-        <v>286.3512600385447</v>
+        <v>286.3512600385455</v>
       </c>
       <c r="L2" t="n">
-        <v>355.2440589882975</v>
+        <v>355.2440589882985</v>
       </c>
       <c r="M2" t="n">
-        <v>395.2774638266805</v>
+        <v>395.2774638266817</v>
       </c>
       <c r="N2" t="n">
-        <v>401.6734664412616</v>
+        <v>401.6734664412628</v>
       </c>
       <c r="O2" t="n">
-        <v>379.2888642419688</v>
+        <v>379.28886424197</v>
       </c>
       <c r="P2" t="n">
-        <v>323.7142704725118</v>
+        <v>323.7142704725128</v>
       </c>
       <c r="Q2" t="n">
-        <v>243.0959357132741</v>
+        <v>243.0959357132748</v>
       </c>
       <c r="R2" t="n">
-        <v>141.4070916808367</v>
+        <v>141.4070916808372</v>
       </c>
       <c r="S2" t="n">
-        <v>51.29746047682036</v>
+        <v>51.29746047682052</v>
       </c>
       <c r="T2" t="n">
-        <v>9.854289993956382</v>
+        <v>9.854289993956412</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1800898228478606</v>
+        <v>0.1800898228478612</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.204456875332126</v>
+        <v>1.204456875332129</v>
       </c>
       <c r="H3" t="n">
-        <v>11.63251771702343</v>
+        <v>11.63251771702346</v>
       </c>
       <c r="I3" t="n">
-        <v>41.46923890946135</v>
+        <v>41.46923890946147</v>
       </c>
       <c r="J3" t="n">
-        <v>113.7947611909181</v>
+        <v>113.7947611909184</v>
       </c>
       <c r="K3" t="n">
-        <v>194.4933718381705</v>
+        <v>194.4933718381711</v>
       </c>
       <c r="L3" t="n">
-        <v>261.5203404092846</v>
+        <v>261.5203404092854</v>
       </c>
       <c r="M3" t="n">
-        <v>305.1819021400741</v>
+        <v>305.181902140075</v>
       </c>
       <c r="N3" t="n">
-        <v>313.2591589926304</v>
+        <v>313.2591589926313</v>
       </c>
       <c r="O3" t="n">
-        <v>286.5709303339553</v>
+        <v>286.5709303339563</v>
       </c>
       <c r="P3" t="n">
-        <v>229.9984361325004</v>
+        <v>229.9984361325011</v>
       </c>
       <c r="Q3" t="n">
-        <v>153.7478635950272</v>
+        <v>153.7478635950276</v>
       </c>
       <c r="R3" t="n">
-        <v>74.78198038246306</v>
+        <v>74.78198038246329</v>
       </c>
       <c r="S3" t="n">
-        <v>22.37225818873486</v>
+        <v>22.37225818873493</v>
       </c>
       <c r="T3" t="n">
-        <v>4.854806440483435</v>
+        <v>4.85480644048345</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07924058390342935</v>
+        <v>0.0792405839034296</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.009776183949711</v>
+        <v>1.009776183949714</v>
       </c>
       <c r="H4" t="n">
-        <v>8.977828253661984</v>
+        <v>8.977828253662013</v>
       </c>
       <c r="I4" t="n">
-        <v>30.36672378641496</v>
+        <v>30.36672378641505</v>
       </c>
       <c r="J4" t="n">
-        <v>71.39117620524458</v>
+        <v>71.3911762052448</v>
       </c>
       <c r="K4" t="n">
-        <v>117.3176330079755</v>
+        <v>117.3176330079759</v>
       </c>
       <c r="L4" t="n">
-        <v>150.1261792028507</v>
+        <v>150.1261792028512</v>
       </c>
       <c r="M4" t="n">
-        <v>158.2870067258625</v>
+        <v>158.2870067258629</v>
       </c>
       <c r="N4" t="n">
-        <v>154.5232954947773</v>
+        <v>154.5232954947778</v>
       </c>
       <c r="O4" t="n">
-        <v>142.7272737095465</v>
+        <v>142.7272737095469</v>
       </c>
       <c r="P4" t="n">
-        <v>122.1278395569723</v>
+        <v>122.1278395569727</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.55498573055264</v>
+        <v>84.5549857305529</v>
       </c>
       <c r="R4" t="n">
-        <v>45.40320914377519</v>
+        <v>45.40320914377533</v>
       </c>
       <c r="S4" t="n">
-        <v>17.59764495119633</v>
+        <v>17.59764495119638</v>
       </c>
       <c r="T4" t="n">
-        <v>4.314498240512401</v>
+        <v>4.314498240512415</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05507870094271158</v>
+        <v>0.05507870094271175</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.251122785598259</v>
+        <v>2.251122785598265</v>
       </c>
       <c r="H5" t="n">
-        <v>23.05431122800817</v>
+        <v>23.05431122800824</v>
       </c>
       <c r="I5" t="n">
-        <v>86.78641119177693</v>
+        <v>86.7864111917772</v>
       </c>
       <c r="J5" t="n">
-        <v>191.0612325241704</v>
+        <v>191.0612325241709</v>
       </c>
       <c r="K5" t="n">
-        <v>286.3512600385447</v>
+        <v>286.3512600385455</v>
       </c>
       <c r="L5" t="n">
-        <v>355.2440589882975</v>
+        <v>355.2440589882985</v>
       </c>
       <c r="M5" t="n">
-        <v>395.2774638266805</v>
+        <v>395.2774638266817</v>
       </c>
       <c r="N5" t="n">
-        <v>401.6734664412616</v>
+        <v>401.6734664412628</v>
       </c>
       <c r="O5" t="n">
-        <v>379.2888642419688</v>
+        <v>379.28886424197</v>
       </c>
       <c r="P5" t="n">
-        <v>323.7142704725118</v>
+        <v>323.7142704725128</v>
       </c>
       <c r="Q5" t="n">
-        <v>243.0959357132741</v>
+        <v>243.0959357132748</v>
       </c>
       <c r="R5" t="n">
-        <v>141.4070916808367</v>
+        <v>141.4070916808372</v>
       </c>
       <c r="S5" t="n">
-        <v>51.29746047682036</v>
+        <v>51.29746047682052</v>
       </c>
       <c r="T5" t="n">
-        <v>9.854289993956382</v>
+        <v>9.854289993956412</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1800898228478606</v>
+        <v>0.1800898228478612</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.204456875332126</v>
+        <v>1.204456875332129</v>
       </c>
       <c r="H6" t="n">
-        <v>11.63251771702343</v>
+        <v>11.63251771702346</v>
       </c>
       <c r="I6" t="n">
-        <v>41.46923890946135</v>
+        <v>41.46923890946147</v>
       </c>
       <c r="J6" t="n">
-        <v>113.7947611909181</v>
+        <v>113.7947611909184</v>
       </c>
       <c r="K6" t="n">
-        <v>194.4933718381705</v>
+        <v>194.4933718381711</v>
       </c>
       <c r="L6" t="n">
-        <v>261.5203404092846</v>
+        <v>261.5203404092854</v>
       </c>
       <c r="M6" t="n">
-        <v>305.1819021400741</v>
+        <v>305.181902140075</v>
       </c>
       <c r="N6" t="n">
-        <v>313.2591589926304</v>
+        <v>313.2591589926313</v>
       </c>
       <c r="O6" t="n">
-        <v>286.5709303339553</v>
+        <v>286.5709303339563</v>
       </c>
       <c r="P6" t="n">
-        <v>229.9984361325004</v>
+        <v>229.9984361325011</v>
       </c>
       <c r="Q6" t="n">
-        <v>153.7478635950272</v>
+        <v>153.7478635950276</v>
       </c>
       <c r="R6" t="n">
-        <v>74.78198038246306</v>
+        <v>74.78198038246329</v>
       </c>
       <c r="S6" t="n">
-        <v>22.37225818873486</v>
+        <v>22.37225818873493</v>
       </c>
       <c r="T6" t="n">
-        <v>4.854806440483435</v>
+        <v>4.85480644048345</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07924058390342935</v>
+        <v>0.0792405839034296</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.009776183949711</v>
+        <v>1.009776183949714</v>
       </c>
       <c r="H7" t="n">
-        <v>8.977828253661984</v>
+        <v>8.977828253662013</v>
       </c>
       <c r="I7" t="n">
-        <v>30.36672378641496</v>
+        <v>30.36672378641505</v>
       </c>
       <c r="J7" t="n">
-        <v>71.39117620524458</v>
+        <v>71.3911762052448</v>
       </c>
       <c r="K7" t="n">
-        <v>117.3176330079755</v>
+        <v>117.3176330079759</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1261792028507</v>
+        <v>150.1261792028512</v>
       </c>
       <c r="M7" t="n">
-        <v>158.2870067258625</v>
+        <v>158.2870067258629</v>
       </c>
       <c r="N7" t="n">
-        <v>154.5232954947773</v>
+        <v>154.5232954947778</v>
       </c>
       <c r="O7" t="n">
-        <v>142.7272737095465</v>
+        <v>142.7272737095469</v>
       </c>
       <c r="P7" t="n">
-        <v>122.1278395569723</v>
+        <v>122.1278395569727</v>
       </c>
       <c r="Q7" t="n">
-        <v>84.55498573055264</v>
+        <v>84.5549857305529</v>
       </c>
       <c r="R7" t="n">
-        <v>45.40320914377519</v>
+        <v>45.40320914377533</v>
       </c>
       <c r="S7" t="n">
-        <v>17.59764495119633</v>
+        <v>17.59764495119638</v>
       </c>
       <c r="T7" t="n">
-        <v>4.314498240512401</v>
+        <v>4.314498240512415</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05507870094271158</v>
+        <v>0.05507870094271175</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32087,13 +32087,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>302.967544750805</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32552,10 +32552,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32792,13 +32792,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,10 +33269,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33500,25 +33500,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>179.1119431695578</v>
+        <v>10.01532799748466</v>
       </c>
       <c r="K2" t="n">
-        <v>390.4068215647289</v>
+        <v>66.261408993565</v>
       </c>
       <c r="L2" t="n">
-        <v>537.1388585687607</v>
+        <v>537.1388585687617</v>
       </c>
       <c r="M2" t="n">
-        <v>258.4509659253041</v>
+        <v>614.4447640922415</v>
       </c>
       <c r="N2" t="n">
-        <v>609.6073272566548</v>
+        <v>609.607327256656</v>
       </c>
       <c r="O2" t="n">
-        <v>529.9908340830275</v>
+        <v>529.9908340830286</v>
       </c>
       <c r="P2" t="n">
-        <v>92.48127471724229</v>
+        <v>229.7295042935371</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.7902458388246</v>
+        <v>20.79024583882534</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>113.0481698646606</v>
       </c>
       <c r="K3" t="n">
-        <v>56.65193286381151</v>
+        <v>73.57065618630362</v>
       </c>
       <c r="L3" t="n">
-        <v>493.8063059328696</v>
+        <v>493.8063059328704</v>
       </c>
       <c r="M3" t="n">
-        <v>628.7529319680557</v>
+        <v>628.7529319680566</v>
       </c>
       <c r="N3" t="n">
-        <v>656.4622398668903</v>
+        <v>661.1730837787906</v>
       </c>
       <c r="O3" t="n">
-        <v>143.9746858895109</v>
+        <v>537.8370051662414</v>
       </c>
       <c r="P3" t="n">
-        <v>414.4867973581073</v>
+        <v>96.02402871817085</v>
       </c>
       <c r="Q3" t="n">
-        <v>223.8433772448547</v>
+        <v>13.76608950900609</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>95.04814118209266</v>
+        <v>95.04814118209302</v>
       </c>
       <c r="L4" t="n">
-        <v>177.7162044631669</v>
+        <v>177.7162044631673</v>
       </c>
       <c r="M4" t="n">
-        <v>197.870883687703</v>
+        <v>197.8708836877035</v>
       </c>
       <c r="N4" t="n">
-        <v>198.6554678740059</v>
+        <v>198.6554678740063</v>
       </c>
       <c r="O4" t="n">
-        <v>167.3124016235862</v>
+        <v>167.3124016235866</v>
       </c>
       <c r="P4" t="n">
-        <v>119.4063988218658</v>
+        <v>119.4063988218662</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>179.1119431695578</v>
+        <v>10.01532799748466</v>
       </c>
       <c r="K5" t="n">
-        <v>390.4068215647289</v>
+        <v>390.4068215647297</v>
       </c>
       <c r="L5" t="n">
-        <v>465.1784672451663</v>
+        <v>518.7268661767312</v>
       </c>
       <c r="M5" t="n">
-        <v>614.4447640922402</v>
+        <v>614.4447640922415</v>
       </c>
       <c r="N5" t="n">
-        <v>172.2604028446706</v>
+        <v>609.607327256656</v>
       </c>
       <c r="O5" t="n">
-        <v>149.1906528202821</v>
+        <v>149.1906528202833</v>
       </c>
       <c r="P5" t="n">
-        <v>414.2799828887249</v>
+        <v>92.48127471724325</v>
       </c>
       <c r="Q5" t="n">
-        <v>233.1052364987293</v>
+        <v>233.10523649873</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>113.0481698646602</v>
+        <v>113.0481698646606</v>
       </c>
       <c r="K6" t="n">
-        <v>321.1171698763901</v>
+        <v>321.1171698763907</v>
       </c>
       <c r="L6" t="n">
-        <v>493.8063059328696</v>
+        <v>122.9659606294112</v>
       </c>
       <c r="M6" t="n">
-        <v>628.7529319680557</v>
+        <v>628.7529319680566</v>
       </c>
       <c r="N6" t="n">
-        <v>413.6265700887087</v>
+        <v>574.3896276563135</v>
       </c>
       <c r="O6" t="n">
-        <v>537.8370051662405</v>
+        <v>537.8370051662414</v>
       </c>
       <c r="P6" t="n">
-        <v>96.02402871817017</v>
+        <v>96.02402871817085</v>
       </c>
       <c r="Q6" t="n">
-        <v>13.76608950900564</v>
+        <v>223.8433772448552</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>95.04814118209266</v>
+        <v>95.04814118209302</v>
       </c>
       <c r="L7" t="n">
-        <v>177.7162044631669</v>
+        <v>177.7162044631673</v>
       </c>
       <c r="M7" t="n">
-        <v>197.870883687703</v>
+        <v>197.8708836877035</v>
       </c>
       <c r="N7" t="n">
-        <v>198.6554678740059</v>
+        <v>198.6554678740063</v>
       </c>
       <c r="O7" t="n">
-        <v>167.3124016235862</v>
+        <v>167.3124016235866</v>
       </c>
       <c r="P7" t="n">
-        <v>119.4063988218658</v>
+        <v>119.4063988218662</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>278.2145267895804</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35182,13 +35182,13 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>419.8717665848778</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35252,7 +35252,7 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
@@ -35261,7 +35261,7 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793672</v>
+        <v>513.2342185919454</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35735,13 +35735,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>160.8335108287866</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36200,10 +36200,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>159.048271228012</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36367,10 +36367,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36440,13 +36440,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525773</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
